--- a/analysis/neestimator/Nb_results.xlsx
+++ b/analysis/neestimator/Nb_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddayan/FRA/north_santiam_pedigree/dayan_NSNT_2022/analysis/neestimator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7DC6A9-8C5A-3C47-A3F2-ED413530C981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD24EFC9-4FC1-DA4C-AE68-8486ADD4A16E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380" xr2:uid="{67E3BE78-2B5C-FE49-A639-AE8ADB5DFE24}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{67E3BE78-2B5C-FE49-A639-AE8ADB5DFE24}"/>
   </bookViews>
   <sheets>
     <sheet name="Ne_Estimator_results" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Year</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>reintro</t>
+  </si>
+  <si>
+    <t>LD method, exclude singletons</t>
+  </si>
+  <si>
+    <t>combined_above</t>
   </si>
 </sst>
 </file>
@@ -124,8 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B17300-5F51-8146-8969-A350326073C4}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,173 +489,193 @@
         <v>94</v>
       </c>
       <c r="D2">
-        <v>49.1</v>
+        <v>57.1</v>
       </c>
       <c r="E2">
-        <v>34.6</v>
+        <v>42.4</v>
       </c>
       <c r="F2">
-        <v>73.3</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2012</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>174</v>
       </c>
-      <c r="D3">
-        <v>88.7</v>
-      </c>
-      <c r="E3">
-        <v>70.2</v>
-      </c>
-      <c r="F3">
-        <v>114.8</v>
+      <c r="D3" s="1">
+        <v>113</v>
+      </c>
+      <c r="E3" s="1">
+        <v>91.1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>143.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2013</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>242</v>
       </c>
-      <c r="D4">
-        <v>224</v>
-      </c>
-      <c r="E4">
-        <v>179.3</v>
-      </c>
-      <c r="F4">
-        <v>289.8</v>
+      <c r="D4" s="1">
+        <v>317.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>251.7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>418.7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>2014</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>87</v>
       </c>
-      <c r="D5">
-        <v>109.8</v>
-      </c>
-      <c r="E5">
-        <v>63.1</v>
-      </c>
-      <c r="F5">
-        <v>270.3</v>
+      <c r="D5" s="1">
+        <v>145.4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>89.7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>312.10000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>2015</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>498</v>
       </c>
-      <c r="D6">
-        <v>291.5</v>
-      </c>
-      <c r="E6">
-        <v>223.2</v>
-      </c>
-      <c r="F6">
-        <v>394.9</v>
+      <c r="D6" s="1">
+        <v>315.3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>266.2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>379.2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>2015</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>396</v>
       </c>
-      <c r="D7">
-        <v>153.69999999999999</v>
-      </c>
-      <c r="E7">
-        <v>118</v>
-      </c>
-      <c r="F7">
-        <v>204.8</v>
+      <c r="D7" s="1">
+        <v>217.1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>183.7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>259.89999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>2013</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>91</v>
       </c>
-      <c r="D8">
-        <v>155.30000000000001</v>
-      </c>
-      <c r="E8">
-        <v>96.4</v>
-      </c>
-      <c r="F8">
-        <v>329.3</v>
+      <c r="D8" s="1">
+        <v>162</v>
+      </c>
+      <c r="E8" s="1">
+        <v>103.2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>323.8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>2014</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>50</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>230.6</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>111.9</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>4527.3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>2015</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>83</v>
       </c>
-      <c r="D10">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="E10">
-        <v>51.1</v>
-      </c>
-      <c r="F10">
-        <v>101.3</v>
+      <c r="D10" s="1">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="E10" s="1">
+        <v>56.8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1">
+        <v>717</v>
+      </c>
+      <c r="D11" s="1">
+        <v>370.4</v>
+      </c>
+      <c r="E11">
+        <v>321.60000000000002</v>
+      </c>
+      <c r="F11">
+        <v>430.2</v>
       </c>
     </row>
   </sheetData>
@@ -658,10 +685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD52680-D616-6B42-94A0-D2D51B99DDD6}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,51 +706,56 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
     </row>
